--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_07.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700135.701087</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700137.7571855</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700135.701087.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700137.7571855.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2893.05</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2878.15</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-14.90000000000009</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700138.0658908</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700138.2742388</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700138.0658908.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700138.2742388.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2879.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2876.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.099999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700138.3178923</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700138.827582</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700138.3178923.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700138.827582.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>2873.65</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2873.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700139.1761582</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700140.6905174</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700139.1761582.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700140.6905174.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>2875.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2892.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-17.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700141.69002</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700142.5678704</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700141.69002.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700142.5678704.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>2888.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2891.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3.450000000000273</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700143.5256848</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700145.6424065</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700143.5256848.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700145.6424065.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>2895.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2901.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-5.949999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700146.3278685</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700147.4996982</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700146.3278685.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700147.4996982.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>2910.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2908.15</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.549999999999727</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700148.3458512</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700148.7586048</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700148.3458512.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700148.7586048.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>2903</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2911.95</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>8.949999999999818</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700148.954726</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700150.0466447</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700148.954726.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700150.0466447.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2915.25</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2918.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-3.199999999999818</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700150.4607847</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700150.7711103</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700150.4607847.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700150.7711103.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>2922.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2921.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.550000000000182</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1059,43 +1135,49 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700150.8677645</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700150.8677645.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700150.8677645.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2919.65</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2919.65</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700151.1246042</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700151.9189084</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700151.1246042.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700151.9189084.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>11.853</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.858</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700152.5166051</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700153.3971052</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700152.5166051.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700153.3971052.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>11.841</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>11.853</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700153.4933581</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700153.581307</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700153.4933581.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700153.581307.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>11.859</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.846</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700153.7578433</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700154.08379</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700153.7578433.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700154.08379.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.834</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.854</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700154.3742442</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700155.5453532</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700154.3742442.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700155.5453532.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.867</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11.861</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700155.9297204</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700158.0772705</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700155.9297204.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700158.0772705.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11.871</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>11.902</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.03099999999999881</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700159.9135823</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700160.6964033</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700159.9135823.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700160.6964033.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.919</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11.914</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700160.9197273</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700161.2797773</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700160.9197273.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700161.2797773.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.92</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>11.914</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700161.3928454</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700161.608363</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700161.3928454.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700161.608363.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>11.914</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>11.915</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700162.1346514</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700162.7256627</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700162.1346514.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700162.7256627.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>11.918</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>11.915</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700162.7930949</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700163.9353304</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700162.7930949.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700163.9353304.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>11.914</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>11.894</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.01999999999999957</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700165.0044851</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700165.6190047</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700165.0044851.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700165.6190047.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>11.899</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>11.89</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.009000000000000341</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
+        <v>0.008999999999998565</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1727,44 +1881,50 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700166.290573</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700166.290573.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700166.290573.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.899</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.899</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1825,16 +1985,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02900000000000347</v>
+        <v>0.02800000000000047</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002230769230769497</v>
+        <v>0.00215384615384619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
